--- a/Self_Learning_Testcases_and_Results/TC_02_NMAP (2.0).xlsx
+++ b/Self_Learning_Testcases_and_Results/TC_02_NMAP (2.0).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Class12Capstone\Self_Learning_Testcases_and_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9227ACD3-8A9D-492E-97E3-2DB9195ECBEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8847D22-5AE7-4375-9537-D9BBF1CE61FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD5CBF95-3D4B-4800-82CA-D44224D71399}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E39BF414-D683-4F3E-8951-95362A2BC63F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Self Learning TC3" sheetId="1" r:id="rId1"/>
+    <sheet name="Self Learning TC2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">AC4 Nmap tool should work properly and allow you to view a specific targets IP address, as well as show you any open ports that hackers may be able to access from that address or URL. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Assumptions:</t>
   </si>
@@ -65,31 +62,22 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>AC4TC3: Ensure you're able to scan a range of ports on the website using the IP Address from the Command Prompt</t>
-  </si>
-  <si>
-    <t>1. Open up the cmd prompt and run the command "nmap"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A list of calls and how to use the program from the command line should populate showing you how to utilize the tool. This is also letting you know that the tool has now been enabled. </t>
-  </si>
-  <si>
-    <t>2. In the command prompt type "nmap 167.71.183.120" and hit enter</t>
-  </si>
-  <si>
-    <t>Nmap should populate information showing you your IP Address as well as the IP Address you requested to view with a list of open ports. The port labeled 22/tcp ssh should be listed as open.</t>
-  </si>
-  <si>
-    <t>3. Now that we have an open port to target run the command "nmap -oG - 167.71.183.120  "-p  -22 " -vv &gt; /Users/chris/Desktop/Results"</t>
-  </si>
-  <si>
-    <t>There should be a file located on your desktop labeled "Results"</t>
-  </si>
-  <si>
-    <t>4. Click on the "Results" file on your desktop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shown on the file should be information pertaining to Ports 1-22. It should also let you know if the Host server is "Up" as well as the names and status of all the ports that you just scanned. </t>
+    <t>TC3: Use quick-scan on NMAP to scan the websites Ipaddress and locate any open ports</t>
+  </si>
+  <si>
+    <t>1.Initialize the "Zenmap" application from your desktop</t>
+  </si>
+  <si>
+    <t>2. In the "Target:" box on top type in the web address "167.71.183.120"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmap should show the Ipaddress you entered into the target box as well as update the command box underneath showing you the address there as well. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. On the right side of the application ensure "Quick Scan" is selected as the profile option and then click the "Scan" commmand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmap should populate a list of the open ports located through the Ipaddress you scanned. Take note of which ports are open. Port 443/tcp mysql is a commonly targeted port by hackers. You should take measure to ensure that these ports is properly secured. </t>
   </si>
 </sst>
 </file>
@@ -574,10 +562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804BC08A-170D-4E3C-A891-7DD4CCA6865C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02B6B1C-1DBF-442C-8907-91DDB5578770}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -588,29 +578,27 @@
     <col min="5" max="5" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -618,41 +606,39 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="60.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -660,21 +646,17 @@
     <row r="13" spans="1:5" ht="85.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
+    <row r="14" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>

--- a/Self_Learning_Testcases_and_Results/TC_02_NMAP (2.0).xlsx
+++ b/Self_Learning_Testcases_and_Results/TC_02_NMAP (2.0).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Class12Capstone\Self_Learning_Testcases_and_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8847D22-5AE7-4375-9537-D9BBF1CE61FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3B4A1C-DEFF-4ED9-99EE-C87B26FAC9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E39BF414-D683-4F3E-8951-95362A2BC63F}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">3. On the right side of the application ensure "Quick Scan" is selected as the profile option and then click the "Scan" commmand. </t>
   </si>
   <si>
-    <t xml:space="preserve">Nmap should populate a list of the open ports located through the Ipaddress you scanned. Take note of which ports are open. Port 443/tcp mysql is a commonly targeted port by hackers. You should take measure to ensure that these ports is properly secured. </t>
+    <t xml:space="preserve">Nmap should populate a list of the open ports located through the Ipaddress you scanned. </t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B11" sqref="B11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
